--- a/generated_docs/WR_89774377_WeekEnding_070625.xlsx
+++ b/generated_docs/WR_89774377_WeekEnding_070625.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:47 AM</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>William Kyle Roberts</t>
+          <t>Jonathan Estrada</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/02/2025 to 07/06/25</t>
+          <t>06/30/2025 to 07/06/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G13" s="6" t="inlineStr">
         <is>
-          <t>832-1</t>
+          <t>709-1</t>
         </is>
       </c>
     </row>

--- a/generated_docs/WR_89774377_WeekEnding_070625.xlsx
+++ b/generated_docs/WR_89774377_WeekEnding_070625.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I39"/>
+  <dimension ref="A2:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:47 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8928.93</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -795,7 +795,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -806,7 +806,7 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -825,17 +825,17 @@
         </is>
       </c>
       <c r="F18" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B19" s="12" t="inlineStr">
@@ -863,18 +863,18 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>GND-LG-SL</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>GND,Lug,St Lt</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -897,18 +897,18 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -927,22 +927,22 @@
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -976,7 +976,7 @@
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,18 +999,18 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1033,18 +1033,18 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1067,18 +1067,18 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,18 +1101,18 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>GND-LG-SL</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>GND,Lug,St Lt</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,18 +1203,18 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1233,22 +1233,22 @@
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,18 +1271,18 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1305,18 +1305,18 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>Point 33</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1339,18 +1339,18 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1373,18 +1373,18 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>110.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,18 +1407,18 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1441,18 +1441,18 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1475,18 +1475,18 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 37</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1505,21 +1505,429 @@
         </is>
       </c>
       <c r="F38" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="15" t="inlineStr">
+      <c r="A39" s="12" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B39" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C39" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D39" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E39" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="13" t="inlineStr"/>
+      <c r="H39" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E40" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G40" s="10" t="inlineStr"/>
+      <c r="H40" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12" t="inlineStr">
+        <is>
+          <t>Point 31</t>
+        </is>
+      </c>
+      <c r="B41" s="12" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C41" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D41" s="12" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E41" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13" t="inlineStr"/>
+      <c r="H41" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B42" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D42" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E42" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10" t="inlineStr"/>
+      <c r="H42" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B43" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C43" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D43" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E43" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F43" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" s="13" t="inlineStr"/>
+      <c r="H43" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="inlineStr">
+        <is>
+          <t>Point 33</t>
+        </is>
+      </c>
+      <c r="B44" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C44" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E44" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F44" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10" t="inlineStr"/>
+      <c r="H44" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="12" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B45" s="12" t="inlineStr">
+        <is>
+          <t>GND-CR-4</t>
+        </is>
+      </c>
+      <c r="C45" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D45" s="12" t="inlineStr">
+        <is>
+          <t>GND,Cu Clad Rod,#4</t>
+        </is>
+      </c>
+      <c r="E45" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="13" t="inlineStr"/>
+      <c r="H45" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B46" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C46" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E46" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F46" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" s="10" t="inlineStr"/>
+      <c r="H46" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="12" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B47" s="12" t="inlineStr">
+        <is>
+          <t>INS-15-P-S-C</t>
+        </is>
+      </c>
+      <c r="C47" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D47" s="12" t="inlineStr">
+        <is>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E47" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F47" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="13" t="inlineStr"/>
+      <c r="H47" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B48" s="9" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-C</t>
+        </is>
+      </c>
+      <c r="C48" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Corrosive</t>
+        </is>
+      </c>
+      <c r="E48" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="10" t="inlineStr"/>
+      <c r="H48" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B49" s="12" t="inlineStr">
+        <is>
+          <t>POL-40-2</t>
+        </is>
+      </c>
+      <c r="C49" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D49" s="12" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 2</t>
+        </is>
+      </c>
+      <c r="E49" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F49" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="13" t="inlineStr"/>
+      <c r="H49" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="inlineStr">
+        <is>
+          <t>Point 37</t>
+        </is>
+      </c>
+      <c r="B50" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C50" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E50" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F50" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="10" t="inlineStr"/>
+      <c r="H50" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H39" s="16" t="n">
-        <v>8928.929999999998</v>
+      <c r="H51" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1529,12 +1937,12 @@
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A39:G39"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A51:G51"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89774377_WeekEnding_070625.xlsx
+++ b/generated_docs/WR_89774377_WeekEnding_070625.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I51"/>
+  <dimension ref="A2:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:47 PM</t>
+          <t>Report Generated On: 08/26/2025 09:59 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>8928.93</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P17</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -761,7 +757,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="17">
@@ -795,7 +791,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="18">
@@ -806,7 +802,7 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
@@ -816,7 +812,7 @@
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -825,17 +821,17 @@
         </is>
       </c>
       <c r="F18" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 19</t>
         </is>
       </c>
       <c r="B19" s="12" t="inlineStr">
@@ -863,18 +859,18 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>GND-LG-SL</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -884,7 +880,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>GND,Lug,St Lt</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -897,18 +893,18 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="12" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
@@ -918,7 +914,7 @@
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
@@ -927,22 +923,22 @@
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="inlineStr">
         <is>
-          <t>Point 19</t>
+          <t>Point 21</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -952,7 +948,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -965,7 +961,7 @@
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="23">
@@ -976,7 +972,7 @@
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -986,7 +982,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,18 +995,18 @@
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
@@ -1020,7 +1016,7 @@
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1033,18 +1029,18 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
@@ -1054,7 +1050,7 @@
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1067,18 +1063,18 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 21</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1088,7 +1084,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,18 +1097,18 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1122,7 +1118,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1135,7 +1131,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="28">
@@ -1146,7 +1142,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1156,7 +1152,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1169,7 +1165,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="29">
@@ -1180,7 +1176,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>GND-LG-SL</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1190,7 +1186,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>GND,Lug,St Lt</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,18 +1199,18 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 27</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C30" s="9" t="inlineStr">
@@ -1224,7 +1220,7 @@
       </c>
       <c r="D30" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E30" s="9" t="inlineStr">
@@ -1233,22 +1229,22 @@
         </is>
       </c>
       <c r="F30" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
@@ -1258,7 +1254,7 @@
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,18 +1267,18 @@
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 31</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
@@ -1292,7 +1288,7 @@
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1305,18 +1301,18 @@
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 33</t>
         </is>
       </c>
       <c r="B33" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-C</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C33" s="12" t="inlineStr">
@@ -1326,7 +1322,7 @@
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E33" s="12" t="inlineStr">
@@ -1339,18 +1335,18 @@
       </c>
       <c r="G33" s="13" t="inlineStr"/>
       <c r="H33" s="14" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C34" s="9" t="inlineStr">
@@ -1360,7 +1356,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E34" s="9" t="inlineStr">
@@ -1373,18 +1369,18 @@
       </c>
       <c r="G34" s="10" t="inlineStr"/>
       <c r="H34" s="11" t="n">
-        <v>0</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B35" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C35" s="12" t="inlineStr">
@@ -1394,7 +1390,7 @@
       </c>
       <c r="D35" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E35" s="12" t="inlineStr">
@@ -1407,18 +1403,18 @@
       </c>
       <c r="G35" s="13" t="inlineStr"/>
       <c r="H35" s="14" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="inlineStr">
         <is>
-          <t>Point 27</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B36" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>PIN-15-PTP-C</t>
         </is>
       </c>
       <c r="C36" s="9" t="inlineStr">
@@ -1428,7 +1424,7 @@
       </c>
       <c r="D36" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Pin,15kV,Pole top,Corrosive</t>
         </is>
       </c>
       <c r="E36" s="9" t="inlineStr">
@@ -1441,18 +1437,18 @@
       </c>
       <c r="G36" s="10" t="inlineStr"/>
       <c r="H36" s="11" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="12" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B37" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C37" s="12" t="inlineStr">
@@ -1462,7 +1458,7 @@
       </c>
       <c r="D37" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E37" s="12" t="inlineStr">
@@ -1475,18 +1471,18 @@
       </c>
       <c r="G37" s="13" t="inlineStr"/>
       <c r="H37" s="14" t="n">
-        <v>0</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 31</t>
+          <t>Point 37</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
@@ -1496,7 +1492,7 @@
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1505,429 +1501,21 @@
         </is>
       </c>
       <c r="F38" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="12" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B39" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-D-S-C</t>
-        </is>
-      </c>
-      <c r="C39" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D39" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E39" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F39" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="13" t="inlineStr"/>
-      <c r="H39" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="9" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B40" s="9" t="inlineStr">
-        <is>
-          <t>PLD-EYE-C</t>
-        </is>
-      </c>
-      <c r="C40" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D40" s="9" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
-        </is>
-      </c>
-      <c r="E40" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F40" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="G40" s="10" t="inlineStr"/>
-      <c r="H40" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="12" t="inlineStr">
-        <is>
-          <t>Point 31</t>
-        </is>
-      </c>
-      <c r="B41" s="12" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C41" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D41" s="12" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E41" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F41" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="13" t="inlineStr"/>
-      <c r="H41" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="9" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B42" s="9" t="inlineStr">
-        <is>
-          <t>INS-15-D-S-C</t>
-        </is>
-      </c>
-      <c r="C42" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D42" s="9" t="inlineStr">
-        <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E42" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F42" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10" t="inlineStr"/>
-      <c r="H42" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="12" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B43" s="12" t="inlineStr">
-        <is>
-          <t>PLD-EYE-C</t>
-        </is>
-      </c>
-      <c r="C43" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D43" s="12" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
-        </is>
-      </c>
-      <c r="E43" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F43" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G43" s="13" t="inlineStr"/>
-      <c r="H43" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="9" t="inlineStr">
-        <is>
-          <t>Point 33</t>
-        </is>
-      </c>
-      <c r="B44" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C44" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D44" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E44" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F44" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="10" t="inlineStr"/>
-      <c r="H44" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="12" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B45" s="12" t="inlineStr">
-        <is>
-          <t>GND-CR-4</t>
-        </is>
-      </c>
-      <c r="C45" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D45" s="12" t="inlineStr">
-        <is>
-          <t>GND,Cu Clad Rod,#4</t>
-        </is>
-      </c>
-      <c r="E45" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F45" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="13" t="inlineStr"/>
-      <c r="H45" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="9" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B46" s="9" t="inlineStr">
-        <is>
-          <t>GND-MD</t>
-        </is>
-      </c>
-      <c r="C46" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D46" s="9" t="inlineStr">
-        <is>
-          <t>GND,Wire Mldg Only</t>
-        </is>
-      </c>
-      <c r="E46" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F46" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G46" s="10" t="inlineStr"/>
-      <c r="H46" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="12" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B47" s="12" t="inlineStr">
-        <is>
-          <t>INS-15-P-S-C</t>
-        </is>
-      </c>
-      <c r="C47" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D47" s="12" t="inlineStr">
-        <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
-        </is>
-      </c>
-      <c r="E47" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F47" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="13" t="inlineStr"/>
-      <c r="H47" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="9" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B48" s="9" t="inlineStr">
-        <is>
-          <t>PIN-15-PTP-C</t>
-        </is>
-      </c>
-      <c r="C48" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D48" s="9" t="inlineStr">
-        <is>
-          <t>Pin,15kV,Pole top,Corrosive</t>
-        </is>
-      </c>
-      <c r="E48" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F48" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="10" t="inlineStr"/>
-      <c r="H48" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="12" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B49" s="12" t="inlineStr">
-        <is>
-          <t>POL-40-2</t>
-        </is>
-      </c>
-      <c r="C49" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D49" s="12" t="inlineStr">
-        <is>
-          <t>Pole,40ft,Class 2</t>
-        </is>
-      </c>
-      <c r="E49" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F49" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="13" t="inlineStr"/>
-      <c r="H49" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="9" t="inlineStr">
-        <is>
-          <t>Point 37</t>
-        </is>
-      </c>
-      <c r="B50" s="9" t="inlineStr">
-        <is>
-          <t>PLA-HDIG</t>
-        </is>
-      </c>
-      <c r="C50" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D50" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
-        </is>
-      </c>
-      <c r="E50" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F50" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="10" t="inlineStr"/>
-      <c r="H50" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="15" t="inlineStr">
+      <c r="A39" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H51" s="16" t="n">
-        <v>0</v>
+      <c r="H39" s="16" t="n">
+        <v>8928.929999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1937,12 +1525,12 @@
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A39:G39"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A51:G51"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
